--- a/contratos/contratos-4-2016.xlsx
+++ b/contratos/contratos-4-2016.xlsx
@@ -811,7 +811,7 @@
     <t>OS.LO ARGENTINA S.A.</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>TURIN ALBERTO JOSE</t>
@@ -868,7 +868,7 @@
     <t>LEIVA GISELA NOEMI</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>RADIO MECANO S.A.</t>
@@ -880,7 +880,7 @@
     <t>ENTE AUTARQUICO PUERTO DE CONCEPCION DEL URUGUAY</t>
   </si>
   <si>
-    <t>MONROY, AGUSTIN ALEJANDRO</t>
+    <t>MONROY. AGUSTIN ALEJANDRO</t>
   </si>
   <si>
     <t>NACION LEASING S.A.</t>
@@ -1039,7 +1039,7 @@
     <t>MAGRI HECTOR RAMON</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>CHRISTIANSE DINA BEATRIZ</t>
@@ -1504,673 +1504,673 @@
     <t>120</t>
   </si>
   <si>
-    <t>2.630,00</t>
-  </si>
-  <si>
-    <t>5.300,00</t>
-  </si>
-  <si>
-    <t>38.720,00</t>
-  </si>
-  <si>
-    <t>17.325,00</t>
-  </si>
-  <si>
-    <t>170,00</t>
-  </si>
-  <si>
-    <t>13.407,03</t>
-  </si>
-  <si>
-    <t>1.680,00</t>
-  </si>
-  <si>
-    <t>5.759,98</t>
-  </si>
-  <si>
-    <t>246,11</t>
-  </si>
-  <si>
-    <t>599,20</t>
-  </si>
-  <si>
-    <t>13.967,31</t>
-  </si>
-  <si>
-    <t>154.627,52</t>
-  </si>
-  <si>
-    <t>284.336,32</t>
-  </si>
-  <si>
-    <t>41.789,20</t>
-  </si>
-  <si>
-    <t>15.960,00</t>
-  </si>
-  <si>
-    <t>98.062,43</t>
-  </si>
-  <si>
-    <t>2.475,00</t>
-  </si>
-  <si>
-    <t>9.268,93</t>
-  </si>
-  <si>
-    <t>4.920,00</t>
-  </si>
-  <si>
-    <t>33.347,00</t>
-  </si>
-  <si>
-    <t>45.874,00</t>
-  </si>
-  <si>
-    <t>20.213,69</t>
-  </si>
-  <si>
-    <t>28.788,74</t>
-  </si>
-  <si>
-    <t>24.336,70</t>
-  </si>
-  <si>
-    <t>950,00</t>
-  </si>
-  <si>
-    <t>5.840,00</t>
-  </si>
-  <si>
-    <t>318,46</t>
-  </si>
-  <si>
-    <t>470,00</t>
-  </si>
-  <si>
-    <t>17,40</t>
-  </si>
-  <si>
-    <t>33.956,04</t>
-  </si>
-  <si>
-    <t>157.800,00</t>
-  </si>
-  <si>
-    <t>71,64</t>
-  </si>
-  <si>
-    <t>21.873,21</t>
-  </si>
-  <si>
-    <t>4.751,92</t>
-  </si>
-  <si>
-    <t>2.962,06</t>
-  </si>
-  <si>
-    <t>567,60</t>
-  </si>
-  <si>
-    <t>1.760,00</t>
-  </si>
-  <si>
-    <t>20.435,40</t>
-  </si>
-  <si>
-    <t>26.681,00</t>
-  </si>
-  <si>
-    <t>4.126,97</t>
-  </si>
-  <si>
-    <t>26.427,90</t>
-  </si>
-  <si>
-    <t>5.998,00</t>
-  </si>
-  <si>
-    <t>3.600,00</t>
-  </si>
-  <si>
-    <t>60.477,82</t>
-  </si>
-  <si>
-    <t>146,00</t>
-  </si>
-  <si>
-    <t>419,00</t>
-  </si>
-  <si>
-    <t>16.222,79</t>
-  </si>
-  <si>
-    <t>117,12</t>
-  </si>
-  <si>
-    <t>2.961,20</t>
-  </si>
-  <si>
-    <t>287.908,32</t>
-  </si>
-  <si>
-    <t>1.342,81</t>
-  </si>
-  <si>
-    <t>5.450,00</t>
-  </si>
-  <si>
-    <t>1.656,99</t>
-  </si>
-  <si>
-    <t>110,10</t>
-  </si>
-  <si>
-    <t>890,40</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>298,35</t>
-  </si>
-  <si>
-    <t>5.731,51</t>
-  </si>
-  <si>
-    <t>388,36</t>
-  </si>
-  <si>
-    <t>19.314,00</t>
-  </si>
-  <si>
-    <t>89.176,21</t>
-  </si>
-  <si>
-    <t>444,00</t>
-  </si>
-  <si>
-    <t>760,00</t>
-  </si>
-  <si>
-    <t>10.215,92</t>
-  </si>
-  <si>
-    <t>410,37</t>
-  </si>
-  <si>
-    <t>2.535,00</t>
-  </si>
-  <si>
-    <t>352,05</t>
-  </si>
-  <si>
-    <t>7.297,00</t>
-  </si>
-  <si>
-    <t>12.351,00</t>
-  </si>
-  <si>
-    <t>690,00</t>
-  </si>
-  <si>
-    <t>7.654,40</t>
-  </si>
-  <si>
-    <t>8.668,00</t>
-  </si>
-  <si>
-    <t>2.200,00</t>
-  </si>
-  <si>
-    <t>1.240,00</t>
-  </si>
-  <si>
-    <t>1.449,66</t>
-  </si>
-  <si>
-    <t>28.347,92</t>
-  </si>
-  <si>
-    <t>140,00</t>
-  </si>
-  <si>
-    <t>5.835,00</t>
-  </si>
-  <si>
-    <t>51.000,00</t>
-  </si>
-  <si>
-    <t>2.400,00</t>
-  </si>
-  <si>
-    <t>2.560,00</t>
-  </si>
-  <si>
-    <t>76.290,00</t>
-  </si>
-  <si>
-    <t>22.000,00</t>
-  </si>
-  <si>
-    <t>429,00</t>
-  </si>
-  <si>
-    <t>15.267,00</t>
-  </si>
-  <si>
-    <t>2.520,00</t>
-  </si>
-  <si>
-    <t>2.550,00</t>
-  </si>
-  <si>
-    <t>390,60</t>
-  </si>
-  <si>
-    <t>792,00</t>
-  </si>
-  <si>
-    <t>287,50</t>
-  </si>
-  <si>
-    <t>1,20</t>
-  </si>
-  <si>
-    <t>834,78</t>
-  </si>
-  <si>
-    <t>415.230,93</t>
-  </si>
-  <si>
-    <t>20.300,00</t>
-  </si>
-  <si>
-    <t>53.261,49</t>
-  </si>
-  <si>
-    <t>51.015,00</t>
-  </si>
-  <si>
-    <t>3.450,00</t>
-  </si>
-  <si>
-    <t>3.050,00</t>
-  </si>
-  <si>
-    <t>48,80</t>
-  </si>
-  <si>
-    <t>550,00</t>
-  </si>
-  <si>
-    <t>44.881,65</t>
-  </si>
-  <si>
-    <t>17,50</t>
-  </si>
-  <si>
-    <t>14.369,00</t>
-  </si>
-  <si>
-    <t>21,00</t>
-  </si>
-  <si>
-    <t>47,50</t>
-  </si>
-  <si>
-    <t>3.540,00</t>
-  </si>
-  <si>
-    <t>1.100,00</t>
-  </si>
-  <si>
-    <t>4.279,00</t>
-  </si>
-  <si>
-    <t>43.225,00</t>
-  </si>
-  <si>
-    <t>1.146,00</t>
-  </si>
-  <si>
-    <t>362,00</t>
-  </si>
-  <si>
-    <t>18.400,00</t>
-  </si>
-  <si>
-    <t>537,00</t>
-  </si>
-  <si>
-    <t>1.050,00</t>
-  </si>
-  <si>
-    <t>765,00</t>
-  </si>
-  <si>
-    <t>125,00</t>
-  </si>
-  <si>
-    <t>32.822,17</t>
-  </si>
-  <si>
-    <t>2.336,00</t>
-  </si>
-  <si>
-    <t>2.792,92</t>
-  </si>
-  <si>
-    <t>2.155,82</t>
-  </si>
-  <si>
-    <t>943,00</t>
-  </si>
-  <si>
-    <t>1.407,80</t>
-  </si>
-  <si>
-    <t>90,00</t>
-  </si>
-  <si>
-    <t>31.470,00</t>
-  </si>
-  <si>
-    <t>23.608,25</t>
-  </si>
-  <si>
-    <t>1.350,00</t>
-  </si>
-  <si>
-    <t>200.430,00</t>
-  </si>
-  <si>
-    <t>180.000,00</t>
-  </si>
-  <si>
-    <t>380,00</t>
-  </si>
-  <si>
-    <t>5.584,00</t>
-  </si>
-  <si>
-    <t>3.211,80</t>
-  </si>
-  <si>
-    <t>640,00</t>
-  </si>
-  <si>
-    <t>12.430,00</t>
-  </si>
-  <si>
-    <t>17.300,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>804,80</t>
-  </si>
-  <si>
-    <t>4.852,15</t>
-  </si>
-  <si>
-    <t>142,80</t>
-  </si>
-  <si>
-    <t>2.222,40</t>
-  </si>
-  <si>
-    <t>261,21</t>
-  </si>
-  <si>
-    <t>205.500,00</t>
-  </si>
-  <si>
-    <t>29.377,88</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>8.200,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>2.762,50</t>
-  </si>
-  <si>
-    <t>2.556,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>18.426,50</t>
-  </si>
-  <si>
-    <t>7.500,00</t>
-  </si>
-  <si>
-    <t>3.800,00</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>6.770,00</t>
-  </si>
-  <si>
-    <t>9.000,00</t>
-  </si>
-  <si>
-    <t>18.320,00</t>
-  </si>
-  <si>
-    <t>1.210,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>51.630,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>1.896,80</t>
-  </si>
-  <si>
-    <t>399,67</t>
-  </si>
-  <si>
-    <t>13.247,00</t>
-  </si>
-  <si>
-    <t>28.805,00</t>
-  </si>
-  <si>
-    <t>7.050,00</t>
-  </si>
-  <si>
-    <t>1.380,00</t>
-  </si>
-  <si>
-    <t>53,14</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>734,70</t>
-  </si>
-  <si>
-    <t>13.500,00</t>
-  </si>
-  <si>
-    <t>167,00</t>
-  </si>
-  <si>
-    <t>2.809,00</t>
-  </si>
-  <si>
-    <t>113.827,00</t>
-  </si>
-  <si>
-    <t>127,20</t>
-  </si>
-  <si>
-    <t>71,60</t>
-  </si>
-  <si>
-    <t>2.390,00</t>
-  </si>
-  <si>
-    <t>119.164,00</t>
-  </si>
-  <si>
-    <t>5.746,32</t>
-  </si>
-  <si>
-    <t>15.560,46</t>
-  </si>
-  <si>
-    <t>4.310,00</t>
-  </si>
-  <si>
-    <t>5.200,00</t>
-  </si>
-  <si>
-    <t>4.565,99</t>
-  </si>
-  <si>
-    <t>2.154,10</t>
-  </si>
-  <si>
-    <t>101.144,77</t>
-  </si>
-  <si>
-    <t>21.060,00</t>
-  </si>
-  <si>
-    <t>1.400,00</t>
-  </si>
-  <si>
-    <t>212.628,00</t>
-  </si>
-  <si>
-    <t>14.092,00</t>
-  </si>
-  <si>
-    <t>47.801,00</t>
-  </si>
-  <si>
-    <t>780,00</t>
-  </si>
-  <si>
-    <t>372,40</t>
-  </si>
-  <si>
-    <t>513.795,21</t>
-  </si>
-  <si>
-    <t>10.700,00</t>
-  </si>
-  <si>
-    <t>1.475.265,98</t>
-  </si>
-  <si>
-    <t>320.236,00</t>
-  </si>
-  <si>
-    <t>6.800,00</t>
-  </si>
-  <si>
-    <t>244.850,00</t>
-  </si>
-  <si>
-    <t>203.500,00</t>
-  </si>
-  <si>
-    <t>262.350,00</t>
-  </si>
-  <si>
-    <t>194.336,00</t>
-  </si>
-  <si>
-    <t>32.500,00</t>
-  </si>
-  <si>
-    <t>27.000,00</t>
-  </si>
-  <si>
-    <t>227.390,00</t>
-  </si>
-  <si>
-    <t>318.372,00</t>
-  </si>
-  <si>
-    <t>220.000,00</t>
-  </si>
-  <si>
-    <t>130.000,00</t>
-  </si>
-  <si>
-    <t>167.700,00</t>
-  </si>
-  <si>
-    <t>92.780,00</t>
-  </si>
-  <si>
-    <t>110.000,00</t>
-  </si>
-  <si>
-    <t>1.087.502,52</t>
-  </si>
-  <si>
-    <t>379.855,81</t>
-  </si>
-  <si>
-    <t>33.250,00</t>
-  </si>
-  <si>
-    <t>10.286,40</t>
-  </si>
-  <si>
-    <t>17.000,00</t>
-  </si>
-  <si>
-    <t>17.516,56</t>
-  </si>
-  <si>
-    <t>92.980,00</t>
-  </si>
-  <si>
-    <t>840,00</t>
-  </si>
-  <si>
-    <t>800,00</t>
+    <t>2630.00</t>
+  </si>
+  <si>
+    <t>5300.00</t>
+  </si>
+  <si>
+    <t>38720.00</t>
+  </si>
+  <si>
+    <t>17325.00</t>
+  </si>
+  <si>
+    <t>170.00</t>
+  </si>
+  <si>
+    <t>13407.03</t>
+  </si>
+  <si>
+    <t>1680.00</t>
+  </si>
+  <si>
+    <t>5759.98</t>
+  </si>
+  <si>
+    <t>246.11</t>
+  </si>
+  <si>
+    <t>599.20</t>
+  </si>
+  <si>
+    <t>13967.31</t>
+  </si>
+  <si>
+    <t>154627.52</t>
+  </si>
+  <si>
+    <t>284336.32</t>
+  </si>
+  <si>
+    <t>41789.20</t>
+  </si>
+  <si>
+    <t>15960.00</t>
+  </si>
+  <si>
+    <t>98062.43</t>
+  </si>
+  <si>
+    <t>2475.00</t>
+  </si>
+  <si>
+    <t>9268.93</t>
+  </si>
+  <si>
+    <t>4920.00</t>
+  </si>
+  <si>
+    <t>33347.00</t>
+  </si>
+  <si>
+    <t>45874.00</t>
+  </si>
+  <si>
+    <t>20213.69</t>
+  </si>
+  <si>
+    <t>28788.74</t>
+  </si>
+  <si>
+    <t>24336.70</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>5840.00</t>
+  </si>
+  <si>
+    <t>318.46</t>
+  </si>
+  <si>
+    <t>470.00</t>
+  </si>
+  <si>
+    <t>17.40</t>
+  </si>
+  <si>
+    <t>33956.04</t>
+  </si>
+  <si>
+    <t>157800.00</t>
+  </si>
+  <si>
+    <t>71.64</t>
+  </si>
+  <si>
+    <t>21873.21</t>
+  </si>
+  <si>
+    <t>4751.92</t>
+  </si>
+  <si>
+    <t>2962.06</t>
+  </si>
+  <si>
+    <t>567.60</t>
+  </si>
+  <si>
+    <t>1760.00</t>
+  </si>
+  <si>
+    <t>20435.40</t>
+  </si>
+  <si>
+    <t>26681.00</t>
+  </si>
+  <si>
+    <t>4126.97</t>
+  </si>
+  <si>
+    <t>26427.90</t>
+  </si>
+  <si>
+    <t>5998.00</t>
+  </si>
+  <si>
+    <t>3600.00</t>
+  </si>
+  <si>
+    <t>60477.82</t>
+  </si>
+  <si>
+    <t>146.00</t>
+  </si>
+  <si>
+    <t>419.00</t>
+  </si>
+  <si>
+    <t>16222.79</t>
+  </si>
+  <si>
+    <t>117.12</t>
+  </si>
+  <si>
+    <t>2961.20</t>
+  </si>
+  <si>
+    <t>287908.32</t>
+  </si>
+  <si>
+    <t>1342.81</t>
+  </si>
+  <si>
+    <t>5450.00</t>
+  </si>
+  <si>
+    <t>1656.99</t>
+  </si>
+  <si>
+    <t>110.10</t>
+  </si>
+  <si>
+    <t>890.40</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>298.35</t>
+  </si>
+  <si>
+    <t>5731.51</t>
+  </si>
+  <si>
+    <t>388.36</t>
+  </si>
+  <si>
+    <t>19314.00</t>
+  </si>
+  <si>
+    <t>89176.21</t>
+  </si>
+  <si>
+    <t>444.00</t>
+  </si>
+  <si>
+    <t>760.00</t>
+  </si>
+  <si>
+    <t>10215.92</t>
+  </si>
+  <si>
+    <t>410.37</t>
+  </si>
+  <si>
+    <t>2535.00</t>
+  </si>
+  <si>
+    <t>352.05</t>
+  </si>
+  <si>
+    <t>7297.00</t>
+  </si>
+  <si>
+    <t>12351.00</t>
+  </si>
+  <si>
+    <t>690.00</t>
+  </si>
+  <si>
+    <t>7654.40</t>
+  </si>
+  <si>
+    <t>8668.00</t>
+  </si>
+  <si>
+    <t>2200.00</t>
+  </si>
+  <si>
+    <t>1240.00</t>
+  </si>
+  <si>
+    <t>1449.66</t>
+  </si>
+  <si>
+    <t>28347.92</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>5835.00</t>
+  </si>
+  <si>
+    <t>51000.00</t>
+  </si>
+  <si>
+    <t>2400.00</t>
+  </si>
+  <si>
+    <t>2560.00</t>
+  </si>
+  <si>
+    <t>76290.00</t>
+  </si>
+  <si>
+    <t>22000.00</t>
+  </si>
+  <si>
+    <t>429.00</t>
+  </si>
+  <si>
+    <t>15267.00</t>
+  </si>
+  <si>
+    <t>2520.00</t>
+  </si>
+  <si>
+    <t>2550.00</t>
+  </si>
+  <si>
+    <t>390.60</t>
+  </si>
+  <si>
+    <t>792.00</t>
+  </si>
+  <si>
+    <t>287.50</t>
+  </si>
+  <si>
+    <t>1.20</t>
+  </si>
+  <si>
+    <t>834.78</t>
+  </si>
+  <si>
+    <t>415230.93</t>
+  </si>
+  <si>
+    <t>20300.00</t>
+  </si>
+  <si>
+    <t>53261.49</t>
+  </si>
+  <si>
+    <t>51015.00</t>
+  </si>
+  <si>
+    <t>3450.00</t>
+  </si>
+  <si>
+    <t>3050.00</t>
+  </si>
+  <si>
+    <t>48.80</t>
+  </si>
+  <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>44881.65</t>
+  </si>
+  <si>
+    <t>17.50</t>
+  </si>
+  <si>
+    <t>14369.00</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>47.50</t>
+  </si>
+  <si>
+    <t>3540.00</t>
+  </si>
+  <si>
+    <t>1100.00</t>
+  </si>
+  <si>
+    <t>4279.00</t>
+  </si>
+  <si>
+    <t>43225.00</t>
+  </si>
+  <si>
+    <t>1146.00</t>
+  </si>
+  <si>
+    <t>362.00</t>
+  </si>
+  <si>
+    <t>18400.00</t>
+  </si>
+  <si>
+    <t>537.00</t>
+  </si>
+  <si>
+    <t>1050.00</t>
+  </si>
+  <si>
+    <t>765.00</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>32822.17</t>
+  </si>
+  <si>
+    <t>2336.00</t>
+  </si>
+  <si>
+    <t>2792.92</t>
+  </si>
+  <si>
+    <t>2155.82</t>
+  </si>
+  <si>
+    <t>943.00</t>
+  </si>
+  <si>
+    <t>1407.80</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>31470.00</t>
+  </si>
+  <si>
+    <t>23608.25</t>
+  </si>
+  <si>
+    <t>1350.00</t>
+  </si>
+  <si>
+    <t>200430.00</t>
+  </si>
+  <si>
+    <t>180000.00</t>
+  </si>
+  <si>
+    <t>380.00</t>
+  </si>
+  <si>
+    <t>5584.00</t>
+  </si>
+  <si>
+    <t>3211.80</t>
+  </si>
+  <si>
+    <t>640.00</t>
+  </si>
+  <si>
+    <t>12430.00</t>
+  </si>
+  <si>
+    <t>17300.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>804.80</t>
+  </si>
+  <si>
+    <t>4852.15</t>
+  </si>
+  <si>
+    <t>142.80</t>
+  </si>
+  <si>
+    <t>2222.40</t>
+  </si>
+  <si>
+    <t>261.21</t>
+  </si>
+  <si>
+    <t>205500.00</t>
+  </si>
+  <si>
+    <t>29377.88</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>8200.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>2762.50</t>
+  </si>
+  <si>
+    <t>2556.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>18426.50</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
+    <t>3800.00</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>6770.00</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>18320.00</t>
+  </si>
+  <si>
+    <t>1210.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>51630.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>1896.80</t>
+  </si>
+  <si>
+    <t>399.67</t>
+  </si>
+  <si>
+    <t>13247.00</t>
+  </si>
+  <si>
+    <t>28805.00</t>
+  </si>
+  <si>
+    <t>7050.00</t>
+  </si>
+  <si>
+    <t>1380.00</t>
+  </si>
+  <si>
+    <t>53.14</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>734.70</t>
+  </si>
+  <si>
+    <t>13500.00</t>
+  </si>
+  <si>
+    <t>167.00</t>
+  </si>
+  <si>
+    <t>2809.00</t>
+  </si>
+  <si>
+    <t>113827.00</t>
+  </si>
+  <si>
+    <t>127.20</t>
+  </si>
+  <si>
+    <t>71.60</t>
+  </si>
+  <si>
+    <t>2390.00</t>
+  </si>
+  <si>
+    <t>119164.00</t>
+  </si>
+  <si>
+    <t>5746.32</t>
+  </si>
+  <si>
+    <t>15560.46</t>
+  </si>
+  <si>
+    <t>4310.00</t>
+  </si>
+  <si>
+    <t>5200.00</t>
+  </si>
+  <si>
+    <t>4565.99</t>
+  </si>
+  <si>
+    <t>2154.10</t>
+  </si>
+  <si>
+    <t>101144.77</t>
+  </si>
+  <si>
+    <t>21060.00</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>212628.00</t>
+  </si>
+  <si>
+    <t>14092.00</t>
+  </si>
+  <si>
+    <t>47801.00</t>
+  </si>
+  <si>
+    <t>780.00</t>
+  </si>
+  <si>
+    <t>372.40</t>
+  </si>
+  <si>
+    <t>513795.21</t>
+  </si>
+  <si>
+    <t>10700.00</t>
+  </si>
+  <si>
+    <t>1475265.98</t>
+  </si>
+  <si>
+    <t>320236.00</t>
+  </si>
+  <si>
+    <t>6800.00</t>
+  </si>
+  <si>
+    <t>244850.00</t>
+  </si>
+  <si>
+    <t>203500.00</t>
+  </si>
+  <si>
+    <t>262350.00</t>
+  </si>
+  <si>
+    <t>194336.00</t>
+  </si>
+  <si>
+    <t>32500.00</t>
+  </si>
+  <si>
+    <t>27000.00</t>
+  </si>
+  <si>
+    <t>227390.00</t>
+  </si>
+  <si>
+    <t>318372.00</t>
+  </si>
+  <si>
+    <t>220000.00</t>
+  </si>
+  <si>
+    <t>130000.00</t>
+  </si>
+  <si>
+    <t>167700.00</t>
+  </si>
+  <si>
+    <t>92780.00</t>
+  </si>
+  <si>
+    <t>110000.00</t>
+  </si>
+  <si>
+    <t>1087502.52</t>
+  </si>
+  <si>
+    <t>379855.81</t>
+  </si>
+  <si>
+    <t>33250.00</t>
+  </si>
+  <si>
+    <t>10286.40</t>
+  </si>
+  <si>
+    <t>17000.00</t>
+  </si>
+  <si>
+    <t>17516.56</t>
+  </si>
+  <si>
+    <t>92980.00</t>
+  </si>
+  <si>
+    <t>840.00</t>
+  </si>
+  <si>
+    <t>800.00</t>
   </si>
 </sst>
 </file>
